--- a/OtherModule/Excel/для лекции 42.xlsx
+++ b/OtherModule/Excel/для лекции 42.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Save\PycharmProjects\data_analysis\OtherModule\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21FBAC0-CFB1-42E6-9A2C-3ECC81DB3B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72289867-26A2-48E8-B8BB-DBF652FDF234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8-1" sheetId="3" r:id="rId1"/>
@@ -1441,16 +1441,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>461596</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>556177</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>178511</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>116562</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>105241</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1465,7 +1465,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="461596" y="2461846"/>
+          <a:off x="6865327" y="1289538"/>
           <a:ext cx="4226966" cy="1006453"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1596,16 +1596,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13253</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>366919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495714</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158612</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1620,7 +1620,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="2785441"/>
+          <a:off x="7856883" y="366919"/>
           <a:ext cx="2934114" cy="1166606"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1732,16 +1732,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>20293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466727</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>10768</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>383900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1756,8 +1756,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4878457" y="2786684"/>
-          <a:ext cx="2818987" cy="1166606"/>
+          <a:off x="7860196" y="2190336"/>
+          <a:ext cx="2818987" cy="1379468"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2708,7 +2708,7 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3038,13 +3038,15 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.140625" style="4" customWidth="1"/>
     <col min="2" max="3" width="13.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="4"/>
     <col min="7" max="7" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -3078,8 +3080,14 @@
       <c r="C2" s="20">
         <v>4628</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="D2" s="21">
+        <f>IFERROR($C2/$B2,"план не установлен")</f>
+        <v>0.89</v>
+      </c>
+      <c r="E2" s="21">
+        <f>IF(B2=0,"нэт плэн",$C2/$B2)</f>
+        <v>0.89</v>
+      </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
@@ -3093,8 +3101,14 @@
       <c r="C3" s="20">
         <v>8322</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="21">
+        <f t="shared" ref="D3:D17" si="0">IFERROR($C3/$B3,"план не установлен")</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E3" s="21">
+        <f t="shared" ref="E3:E17" si="1">IF(B3=0,"нэт плэн",$C3/$B3)</f>
+        <v>1.1399999999999999</v>
+      </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
@@ -3108,8 +3122,14 @@
       <c r="C4" s="20">
         <v>1290</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>план не установлен</v>
+      </c>
+      <c r="E4" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>нэт плэн</v>
+      </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
@@ -3123,8 +3143,14 @@
       <c r="C5" s="20">
         <v>6250</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="21">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
@@ -3138,8 +3164,14 @@
       <c r="C6" s="20">
         <v>3146</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="21">
+        <f t="shared" si="0"/>
+        <v>1.21</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="1"/>
+        <v>1.21</v>
+      </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
@@ -3151,8 +3183,14 @@
       <c r="C7" s="20">
         <v>600</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>план не установлен</v>
+      </c>
+      <c r="E7" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>нэт плэн</v>
+      </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
@@ -3166,8 +3204,14 @@
       <c r="C8" s="20">
         <v>3000</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="21">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
@@ -3181,8 +3225,14 @@
       <c r="C9" s="20">
         <v>2600</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="21">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
@@ -3194,8 +3244,14 @@
       <c r="C10" s="20">
         <v>1625</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>план не установлен</v>
+      </c>
+      <c r="E10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>нэт плэн</v>
+      </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
@@ -3209,8 +3265,14 @@
       <c r="C11" s="20">
         <v>2747</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="1"/>
+        <v>0.67</v>
+      </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
@@ -3224,8 +3286,14 @@
       <c r="C12" s="20">
         <v>1365</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="21">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
@@ -3239,8 +3307,14 @@
       <c r="C13" s="20">
         <v>3132</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="21">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
@@ -3254,8 +3328,14 @@
       <c r="C14" s="20">
         <v>3430</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="21">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
@@ -3269,8 +3349,14 @@
       <c r="C15" s="20">
         <v>4680</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="21">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
@@ -3284,8 +3370,14 @@
       <c r="C16" s="20">
         <v>3560</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="21">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
@@ -3299,8 +3391,14 @@
       <c r="C17" s="20">
         <v>5238</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="21">
+        <f t="shared" si="0"/>
+        <v>0.97</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" si="1"/>
+        <v>0.97</v>
+      </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
@@ -3322,7 +3420,9 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3361,14 +3461,20 @@
       <c r="B2" s="22">
         <v>2</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="22" t="str">
+        <f>IF($B2&gt;2,"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
       <c r="D2" s="26">
         <v>78</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="15" t="str">
+        <f>IF(OR(AND(D2&gt;60,E2="город"),AND(D2&gt;90,E2="загород")),"Да","Нет")</f>
+        <v>Да</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3377,14 +3483,20 @@
       <c r="B3" s="22">
         <v>5</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="22" t="str">
+        <f t="shared" ref="C3:C17" si="0">IF($B3&gt;2,"Да","Нет")</f>
+        <v>Да</v>
+      </c>
       <c r="D3" s="26">
         <v>82</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="15" t="str">
+        <f t="shared" ref="F3:F17" si="1">IF(OR(AND(D3&gt;60,E3="город"),AND(D3&gt;90,E3="загород")),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -3393,14 +3505,20 @@
       <c r="B4" s="22">
         <v>2</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Нет</v>
+      </c>
       <c r="D4" s="26">
         <v>86</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Да</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3409,14 +3527,20 @@
       <c r="B5" s="22">
         <v>5</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Да</v>
+      </c>
       <c r="D5" s="26">
         <v>89</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Нет</v>
+      </c>
     </row>
     <row r="6" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
@@ -3425,14 +3549,20 @@
       <c r="B6" s="22">
         <v>2</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Нет</v>
+      </c>
       <c r="D6" s="26">
         <v>111</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Да</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -3441,14 +3571,20 @@
       <c r="B7" s="22">
         <v>1</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Нет</v>
+      </c>
       <c r="D7" s="26">
         <v>79</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Нет</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
@@ -3457,14 +3593,20 @@
       <c r="B8" s="22">
         <v>5</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Да</v>
+      </c>
       <c r="D8" s="26">
         <v>122</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Да</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -3473,14 +3615,20 @@
       <c r="B9" s="22">
         <v>5</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Да</v>
+      </c>
       <c r="D9" s="26">
         <v>82</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Нет</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -3489,14 +3637,20 @@
       <c r="B10" s="22">
         <v>4</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Да</v>
+      </c>
       <c r="D10" s="26">
         <v>40</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Нет</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -3505,14 +3659,20 @@
       <c r="B11" s="22">
         <v>0</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Нет</v>
+      </c>
       <c r="D11" s="26">
         <v>140</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Да</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -3521,14 +3681,20 @@
       <c r="B12" s="22">
         <v>5</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Да</v>
+      </c>
       <c r="D12" s="26">
         <v>66</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Да</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -3537,14 +3703,20 @@
       <c r="B13" s="22">
         <v>5</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Да</v>
+      </c>
       <c r="D13" s="26">
         <v>61</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Нет</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -3553,14 +3725,20 @@
       <c r="B14" s="22">
         <v>5</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Да</v>
+      </c>
       <c r="D14" s="26">
         <v>126</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Да</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -3569,14 +3747,20 @@
       <c r="B15" s="22">
         <v>0</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Нет</v>
+      </c>
       <c r="D15" s="26">
         <v>109</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Да</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
@@ -3585,14 +3769,20 @@
       <c r="B16" s="22">
         <v>4</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Да</v>
+      </c>
       <c r="D16" s="26">
         <v>85</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Да</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -3601,14 +3791,20 @@
       <c r="B17" s="22">
         <v>4</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Да</v>
+      </c>
       <c r="D17" s="26">
         <v>123</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Да</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" s="32"/>
